--- a/Project Docs/Burndown Chart #2.xlsx
+++ b/Project Docs/Burndown Chart #2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicosavage/Desktop/Project Management/Gnoth-Project/Project Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A7332CE-DA75-F648-8FB1-F67EA0BB88CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209E903B-E651-2F4B-8CDA-C6D5A0D58A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="500" windowWidth="15420" windowHeight="17500" xr2:uid="{690006D1-23EF-FB4E-B498-B4633CE9900B}"/>
+    <workbookView xWindow="20240" yWindow="7240" windowWidth="20900" windowHeight="19340" xr2:uid="{690006D1-23EF-FB4E-B498-B4633CE9900B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,13 +289,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -403,31 +403,31 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
@@ -1530,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06EBF6B-7FDE-8645-8A8A-9C8259AE5135}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1570,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1581,7 +1581,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1592,7 +1592,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1603,7 +1603,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1614,7 +1614,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1625,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1644,10 +1644,10 @@
         <v>44989</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1655,10 +1655,10 @@
         <v>44990</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1666,7 +1666,7 @@
         <v>44991</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>1</v>
